--- a/Lab 3-Knowledge-Catalog/IKC Environment-3.xlsx
+++ b/Lab 3-Knowledge-Catalog/IKC Environment-3.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mutiaraprahastuti/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dita/Desktop/Projects-2025/Incubation/Workshop-TechXchange-July-2025/Lab 3-Knowledge-Catalog/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B4FC4A4-EBA0-7147-B463-67D1EFB30C9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF60A4BA-DF7C-F947-82E8-17AC7FE0E06C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="IKC Environment" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="85">
   <si>
     <t>No</t>
   </si>
@@ -282,6 +282,15 @@
   </si>
   <si>
     <t>user40</t>
+  </si>
+  <si>
+    <t>user41</t>
+  </si>
+  <si>
+    <t>user42</t>
+  </si>
+  <si>
+    <t>user43</t>
   </si>
 </sst>
 </file>
@@ -828,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F476A6-C476-470C-A32E-6FF486A7B656}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="133" workbookViewId="0">
+      <selection activeCell="C40" sqref="C40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1526,6 +1535,51 @@
         <v>81</v>
       </c>
       <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D42" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D43" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" s="8">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D44" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="E44" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1550,6 +1604,9 @@
     <hyperlink ref="B40" r:id="rId19" xr:uid="{621BCDEC-1F55-469C-B2F9-68838BBF860A}"/>
     <hyperlink ref="B39" r:id="rId20" xr:uid="{BB711D88-396F-45D9-97BC-B6E1333E3AD9}"/>
     <hyperlink ref="B41" r:id="rId21" xr:uid="{41DA3AA2-C0B2-4675-B36D-AE608A84345C}"/>
+    <hyperlink ref="B42" r:id="rId22" xr:uid="{50218AAB-B051-DE46-A3F5-2394C19110B9}"/>
+    <hyperlink ref="B43" r:id="rId23" xr:uid="{F8DEDF5E-F087-2345-A413-A6557652DFE4}"/>
+    <hyperlink ref="B44" r:id="rId24" xr:uid="{A8DE3A07-F00B-3244-895F-C94AF4907F6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
